--- a/Diseño ContenidoCristiano.xlsx
+++ b/Diseño ContenidoCristiano.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CltControl.GGIECSOFWRK\Desktop\ContenidoCristiano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CltControl.GGIECSOFWRK\Desktop\HTML &amp; CSS\ContenidoCristiano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64D2ED3E-A954-4597-BF5C-87987907F511}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66BBD174-A758-49A7-BB5F-909E172150EE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>Titulo de Navegación</t>
   </si>
@@ -211,6 +211,27 @@
   </si>
   <si>
     <t>6.6</t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>Contactanos</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>Sugerencias y comentarios</t>
+  </si>
+  <si>
+    <t>Registrate</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>Registro</t>
   </si>
 </sst>
 </file>
@@ -254,7 +275,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
@@ -265,6 +286,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,7 +316,7 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>472580</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -594,16 +616,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.85546875" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -645,7 +667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -656,7 +678,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -667,7 +689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -678,7 +700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -689,187 +711,214 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="11" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:3" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+    <row r="16" spans="1:3" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+    <row r="19" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+    <row r="20" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
+    <row r="21" spans="1:2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+    <row r="22" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+    <row r="23" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B23" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="24" spans="1:2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="25" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="26" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+    <row r="27" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+    <row r="28" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+    <row r="29" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>60</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+    <row r="30" spans="1:2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
